--- a/doc/WBS.xlsx
+++ b/doc/WBS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\dev_web-site\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_work\01_project\dev_web-site\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059EE258-F0D2-47A3-962B-9575563CDE0B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS_シビア" sheetId="4" r:id="rId1"/>
@@ -20,12 +21,12 @@
   <definedNames>
     <definedName name="非稼働日">Config!$C$3:$C$23</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="66">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -407,11 +408,19 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -467,7 +476,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +535,30 @@
       <patternFill patternType="lightUp">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor theme="0" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -665,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,6 +778,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="2" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2221,6 +2281,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2256,6 +2333,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2431,43 +2525,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BU70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="1.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="1.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="30.875" style="8" customWidth="1"/>
+    <col min="1" max="2" width="1.90625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="1.7265625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.90625" style="8" customWidth="1"/>
     <col min="5" max="7" width="10" style="8" customWidth="1"/>
-    <col min="8" max="9" width="6.875" style="8" customWidth="1"/>
-    <col min="10" max="73" width="3.125" style="8" customWidth="1"/>
+    <col min="8" max="9" width="6.90625" style="8" customWidth="1"/>
+    <col min="10" max="73" width="3.08984375" style="8" customWidth="1"/>
     <col min="74" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+    <row r="1" spans="1:73" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="1:73" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:73" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="J2" s="9">
@@ -2727,7 +2821,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="J3" s="12">
         <f>Config!B3</f>
         <v>41432</v>
@@ -2985,13 +3079,13 @@
         <v>41495</v>
       </c>
     </row>
-    <row r="4" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="13" t="s">
         <v>1</v>
       </c>
@@ -3264,7 +3358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
@@ -3273,7 +3367,7 @@
       <c r="D5" s="17"/>
       <c r="E5" s="27">
         <f>SUMIF(B6:B68,"&lt;&gt;",E6:E68)</f>
-        <v>44.5</v>
+        <v>39.5</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
@@ -3536,7 +3630,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -3611,7 +3705,7 @@
       <c r="BT6" s="19"/>
       <c r="BU6" s="19"/>
     </row>
-    <row r="7" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>15</v>
@@ -3691,7 +3785,7 @@
       <c r="BT7" s="19"/>
       <c r="BU7" s="19"/>
     </row>
-    <row r="8" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
@@ -3772,7 +3866,7 @@
       <c r="BT8" s="19"/>
       <c r="BU8" s="19"/>
     </row>
-    <row r="9" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
@@ -3853,7 +3947,7 @@
       <c r="BT9" s="19"/>
       <c r="BU9" s="19"/>
     </row>
-    <row r="10" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -3928,7 +4022,7 @@
       <c r="BT10" s="19"/>
       <c r="BU10" s="19"/>
     </row>
-    <row r="11" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="15"/>
       <c r="B11" s="16" t="s">
         <v>10</v>
@@ -3937,7 +4031,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="27">
         <f>SUMIF(G12:G16,"&lt;&gt;デザイナー",E12:E16)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -4200,22 +4294,24 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16" t="s">
+    <row r="12" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="27">
+      <c r="D12" s="30"/>
+      <c r="E12" s="31">
         <v>4</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
+      <c r="G12" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="19" t="str">
         <f t="shared" ref="J12:Y16" si="8">IF($E12="","",IF((J$3&gt;=$H12)*AND(J$3&lt;=$I12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
@@ -4473,7 +4569,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="28"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29" t="s">
@@ -4748,7 +4844,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:73" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:73" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16" t="s">
@@ -5021,7 +5117,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16" t="s">
@@ -5294,7 +5390,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="28"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29" t="s">
@@ -5569,7 +5665,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="28"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -5650,7 +5746,7 @@
       <c r="BT17" s="19"/>
       <c r="BU17" s="19"/>
     </row>
-    <row r="18" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="28"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -5731,7 +5827,7 @@
       <c r="BT18" s="19"/>
       <c r="BU18" s="19"/>
     </row>
-    <row r="19" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="28"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -5812,7 +5908,7 @@
       <c r="BT19" s="19"/>
       <c r="BU19" s="19"/>
     </row>
-    <row r="20" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="28"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -5893,7 +5989,7 @@
       <c r="BT20" s="19"/>
       <c r="BU20" s="19"/>
     </row>
-    <row r="21" spans="1:73" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:73" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="28"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -5974,7 +6070,7 @@
       <c r="BT21" s="19"/>
       <c r="BU21" s="19"/>
     </row>
-    <row r="22" spans="1:73" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:73" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="28"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -6055,7 +6151,7 @@
       <c r="BT22" s="19"/>
       <c r="BU22" s="19"/>
     </row>
-    <row r="23" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -6130,7 +6226,7 @@
       <c r="BT23" s="19"/>
       <c r="BU23" s="19"/>
     </row>
-    <row r="24" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="28"/>
       <c r="B24" s="29" t="s">
         <v>19</v>
@@ -6207,7 +6303,7 @@
       <c r="BT24" s="19"/>
       <c r="BU24" s="19"/>
     </row>
-    <row r="25" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="28"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29" t="s">
@@ -6288,7 +6384,7 @@
       <c r="BT25" s="19"/>
       <c r="BU25" s="19"/>
     </row>
-    <row r="26" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -6363,7 +6459,7 @@
       <c r="BT26" s="19"/>
       <c r="BU26" s="19"/>
     </row>
-    <row r="27" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="15"/>
       <c r="B27" s="16" t="s">
         <v>8</v>
@@ -6372,7 +6468,7 @@
       <c r="D27" s="17"/>
       <c r="E27" s="27">
         <f>SUMIF(G28:G39,"&lt;&gt;デザイナー",E28:E39)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -6635,7 +6731,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16" t="s">
@@ -6908,7 +7004,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16" t="s">
@@ -7181,7 +7277,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16" t="s">
@@ -7454,7 +7550,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16" t="s">
@@ -7727,7 +7823,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16" t="s">
@@ -8000,7 +8096,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16" t="s">
@@ -8273,7 +8369,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16" t="s">
@@ -8546,7 +8642,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16" t="s">
@@ -8819,7 +8915,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16" t="s">
@@ -9092,15 +9188,15 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="27">
-        <v>1</v>
+      <c r="E37" s="27" t="s">
+        <v>65</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>33</v>
@@ -9365,7 +9461,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16" t="s">
@@ -9638,7 +9734,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16" t="s">
@@ -9911,7 +10007,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -9986,7 +10082,7 @@
       <c r="BT40" s="19"/>
       <c r="BU40" s="19"/>
     </row>
-    <row r="41" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="15"/>
       <c r="B41" s="16" t="s">
         <v>9</v>
@@ -10258,7 +10354,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16" t="s">
@@ -10531,7 +10627,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16" t="s">
@@ -10608,7 +10704,7 @@
       <c r="BT43" s="19"/>
       <c r="BU43" s="19"/>
     </row>
-    <row r="44" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -10881,7 +10977,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -11154,7 +11250,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -11427,7 +11523,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -11508,7 +11604,7 @@
       <c r="BT47" s="19"/>
       <c r="BU47" s="19"/>
     </row>
-    <row r="48" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16" t="s">
@@ -11585,7 +11681,7 @@
       <c r="BT48" s="19"/>
       <c r="BU48" s="19"/>
     </row>
-    <row r="49" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -11858,7 +11954,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="15"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -12131,7 +12227,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="15"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -12404,7 +12500,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="15"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -12671,7 +12767,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="15"/>
       <c r="B53" s="16" t="s">
         <v>11</v>
@@ -12943,7 +13039,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="15"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16" t="s">
@@ -13216,7 +13312,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16" t="s">
@@ -13489,7 +13585,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16" t="s">
@@ -13762,7 +13858,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -14029,7 +14125,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -14296,7 +14392,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -14566,7 +14662,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" s="15"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -14836,7 +14932,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" s="15"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -15106,7 +15202,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A62" s="15"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -15376,7 +15472,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A63" s="15"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -15646,7 +15742,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -15916,7 +16012,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -16186,7 +16282,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -16456,7 +16552,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A67" s="15"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -16726,7 +16822,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -16996,10 +17092,10 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="H69" s="20"/>
     </row>
-    <row r="70" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
       <c r="K70" s="21"/>
@@ -17273,43 +17369,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BU70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="1.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="1.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="30.875" style="8" customWidth="1"/>
+    <col min="1" max="2" width="1.90625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="1.7265625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.90625" style="8" customWidth="1"/>
     <col min="5" max="7" width="10" style="8" customWidth="1"/>
-    <col min="8" max="9" width="6.875" style="8" customWidth="1"/>
-    <col min="10" max="73" width="3.125" style="8" customWidth="1"/>
+    <col min="8" max="9" width="6.90625" style="8" customWidth="1"/>
+    <col min="10" max="73" width="3.08984375" style="8" customWidth="1"/>
     <col min="74" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+    <row r="1" spans="1:73" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="1:73" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:73" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="J2" s="9">
@@ -17569,7 +17665,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="J3" s="12">
         <f>Config!B3</f>
         <v>41432</v>
@@ -17827,13 +17923,13 @@
         <v>41495</v>
       </c>
     </row>
-    <row r="4" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="13" t="s">
         <v>1</v>
       </c>
@@ -18106,7 +18202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
@@ -18115,7 +18211,7 @@
       <c r="D5" s="17"/>
       <c r="E5" s="27">
         <f>SUMIF(B6:B68,"&lt;&gt;",E6:E68)</f>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
@@ -18378,7 +18474,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -18453,7 +18549,7 @@
       <c r="BT6" s="19"/>
       <c r="BU6" s="19"/>
     </row>
-    <row r="7" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>15</v>
@@ -18533,7 +18629,7 @@
       <c r="BT7" s="19"/>
       <c r="BU7" s="19"/>
     </row>
-    <row r="8" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
@@ -18614,7 +18710,7 @@
       <c r="BT8" s="19"/>
       <c r="BU8" s="19"/>
     </row>
-    <row r="9" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
@@ -18695,7 +18791,7 @@
       <c r="BT9" s="19"/>
       <c r="BU9" s="19"/>
     </row>
-    <row r="10" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -18770,21 +18866,21 @@
       <c r="BT10" s="19"/>
       <c r="BU10" s="19"/>
     </row>
-    <row r="11" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="27">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38">
         <f>SUMIF(G12:G16,"&lt;&gt;デザイナー",E12:E16)</f>
-        <v>13</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="19" t="str">
         <f t="shared" ref="J11:AO11" si="85">IF($E11="","",IF((J$3&gt;=$H11)*AND(J$3&lt;=$I11),IF($A11="",IF($B11="",3,2),1),""))</f>
         <v/>
@@ -19042,22 +19138,24 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16" t="s">
+    <row r="12" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="27">
+      <c r="D12" s="30"/>
+      <c r="E12" s="31">
         <v>5</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
+      <c r="G12" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="19" t="str">
         <f t="shared" ref="J12:Y16" si="87">IF($E12="","",IF((J$3&gt;=$H12)*AND(J$3&lt;=$I12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
@@ -19315,7 +19413,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="28"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29" t="s">
@@ -19590,22 +19688,22 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:73" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16" t="s">
+    <row r="14" spans="1:73" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="27">
+      <c r="D14" s="37"/>
+      <c r="E14" s="38">
         <v>3</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="19" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -19863,22 +19961,22 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16" t="s">
+    <row r="15" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="27">
+      <c r="D15" s="43"/>
+      <c r="E15" s="44">
         <v>5</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="19" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -20136,7 +20234,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="28"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29" t="s">
@@ -20411,7 +20509,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="28"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -20488,7 +20586,7 @@
       <c r="BT17" s="19"/>
       <c r="BU17" s="19"/>
     </row>
-    <row r="18" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="28"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -20565,7 +20663,7 @@
       <c r="BT18" s="19"/>
       <c r="BU18" s="19"/>
     </row>
-    <row r="19" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="28"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -20642,7 +20740,7 @@
       <c r="BT19" s="19"/>
       <c r="BU19" s="19"/>
     </row>
-    <row r="20" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="28"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -20719,7 +20817,7 @@
       <c r="BT20" s="19"/>
       <c r="BU20" s="19"/>
     </row>
-    <row r="21" spans="1:73" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:73" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="28"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -20796,7 +20894,7 @@
       <c r="BT21" s="19"/>
       <c r="BU21" s="19"/>
     </row>
-    <row r="22" spans="1:73" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:73" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="28"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -20873,7 +20971,7 @@
       <c r="BT22" s="19"/>
       <c r="BU22" s="19"/>
     </row>
-    <row r="23" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -20948,7 +21046,7 @@
       <c r="BT23" s="19"/>
       <c r="BU23" s="19"/>
     </row>
-    <row r="24" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="28"/>
       <c r="B24" s="29" t="s">
         <v>19</v>
@@ -21025,7 +21123,7 @@
       <c r="BT24" s="19"/>
       <c r="BU24" s="19"/>
     </row>
-    <row r="25" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="28"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29" t="s">
@@ -21106,7 +21204,7 @@
       <c r="BT25" s="19"/>
       <c r="BU25" s="19"/>
     </row>
-    <row r="26" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -21181,7 +21279,7 @@
       <c r="BT26" s="19"/>
       <c r="BU26" s="19"/>
     </row>
-    <row r="27" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="15"/>
       <c r="B27" s="16" t="s">
         <v>8</v>
@@ -21190,7 +21288,7 @@
       <c r="D27" s="17"/>
       <c r="E27" s="27">
         <f>SUM(E28:E39)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -21453,7 +21551,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16" t="s">
@@ -21726,7 +21824,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16" t="s">
@@ -21999,7 +22097,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16" t="s">
@@ -22272,7 +22370,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16" t="s">
@@ -22545,7 +22643,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16" t="s">
@@ -22818,7 +22916,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16" t="s">
@@ -23091,7 +23189,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16" t="s">
@@ -23364,7 +23462,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16" t="s">
@@ -23637,7 +23735,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16" t="s">
@@ -23910,15 +24008,15 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="27">
-        <v>1</v>
+      <c r="E37" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>33</v>
@@ -24183,7 +24281,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16" t="s">
@@ -24456,7 +24554,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16" t="s">
@@ -24729,7 +24827,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -24804,7 +24902,7 @@
       <c r="BT40" s="19"/>
       <c r="BU40" s="19"/>
     </row>
-    <row r="41" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="15"/>
       <c r="B41" s="16" t="s">
         <v>9</v>
@@ -25076,7 +25174,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16" t="s">
@@ -25349,7 +25447,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16" t="s">
@@ -25426,7 +25524,7 @@
       <c r="BT43" s="19"/>
       <c r="BU43" s="19"/>
     </row>
-    <row r="44" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -25699,7 +25797,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -25972,7 +26070,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -26245,7 +26343,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -26518,7 +26616,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16" t="s">
@@ -26595,7 +26693,7 @@
       <c r="BT48" s="19"/>
       <c r="BU48" s="19"/>
     </row>
-    <row r="49" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -26868,7 +26966,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="15"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -27141,7 +27239,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="15"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -27414,7 +27512,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="15"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -27489,7 +27587,7 @@
       <c r="BT52" s="19"/>
       <c r="BU52" s="19"/>
     </row>
-    <row r="53" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="15"/>
       <c r="B53" s="16" t="s">
         <v>11</v>
@@ -27761,7 +27859,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="15"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16" t="s">
@@ -28034,7 +28132,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16" t="s">
@@ -28307,7 +28405,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16" t="s">
@@ -28580,7 +28678,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -28847,7 +28945,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -29114,7 +29212,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -29384,7 +29482,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" s="15"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -29654,7 +29752,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" s="15"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -29924,7 +30022,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A62" s="15"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -30194,7 +30292,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A63" s="15"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -30464,7 +30562,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -30734,7 +30832,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -31004,7 +31102,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -31274,7 +31372,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A67" s="15"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -31544,7 +31642,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -31814,10 +31912,10 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="H69" s="20"/>
     </row>
-    <row r="70" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
       <c r="K70" s="21"/>
@@ -32077,23 +32175,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="5.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="5.26953125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -32104,7 +32202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="6">
         <v>41432</v>
       </c>
@@ -32117,8 +32215,8 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="40"/>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="53"/>
       <c r="C4" s="4">
         <v>41434</v>
       </c>
@@ -32128,8 +32226,8 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="41"/>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="54"/>
       <c r="C5" s="4">
         <v>41440</v>
       </c>
@@ -32139,8 +32237,8 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="41"/>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="54"/>
       <c r="C6" s="4">
         <v>41441</v>
       </c>
@@ -32150,8 +32248,8 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="41"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="54"/>
       <c r="C7" s="4">
         <v>41447</v>
       </c>
@@ -32161,8 +32259,8 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="41"/>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="54"/>
       <c r="C8" s="4">
         <v>41448</v>
       </c>
@@ -32172,8 +32270,8 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="41"/>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="54"/>
       <c r="C9" s="4">
         <v>41454</v>
       </c>
@@ -32183,8 +32281,8 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="41"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="54"/>
       <c r="C10" s="4">
         <v>41455</v>
       </c>
@@ -32194,8 +32292,8 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="41"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="54"/>
       <c r="C11" s="4">
         <v>41461</v>
       </c>
@@ -32205,8 +32303,8 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="41"/>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="54"/>
       <c r="C12" s="4">
         <v>41462</v>
       </c>
@@ -32216,8 +32314,8 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="41"/>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="54"/>
       <c r="C13" s="4">
         <v>41468</v>
       </c>
@@ -32227,8 +32325,8 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="41"/>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="54"/>
       <c r="C14" s="4">
         <v>41469</v>
       </c>
@@ -32238,8 +32336,8 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="41"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="54"/>
       <c r="C15" s="4">
         <v>41475</v>
       </c>
@@ -32249,8 +32347,8 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="41"/>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="54"/>
       <c r="C16" s="4">
         <v>41476</v>
       </c>
@@ -32260,8 +32358,8 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="41"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="54"/>
       <c r="C17" s="4">
         <v>41482</v>
       </c>
@@ -32271,8 +32369,8 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="41"/>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="54"/>
       <c r="C18" s="4">
         <v>41483</v>
       </c>
@@ -32282,8 +32380,8 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="41"/>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="54"/>
       <c r="C19" s="4">
         <v>41489</v>
       </c>
@@ -32293,8 +32391,8 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="41"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="54"/>
       <c r="C20" s="4">
         <v>41490</v>
       </c>
@@ -32304,8 +32402,8 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="41"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="54"/>
       <c r="C21" s="4">
         <v>41496</v>
       </c>
@@ -32315,8 +32413,8 @@
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="41"/>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="54"/>
       <c r="C22" s="4">
         <v>41497</v>
       </c>
@@ -32326,8 +32424,8 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="42"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="55"/>
       <c r="C23" s="4">
         <v>41499</v>
       </c>
@@ -32337,28 +32435,28 @@
       </c>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C31" s="5"/>
     </row>
   </sheetData>
@@ -32371,26 +32469,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
